--- a/biology/Histoire de la zoologie et de la botanique/Liste_de_préhistoriens/Liste_de_préhistoriens.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Liste_de_préhistoriens/Liste_de_préhistoriens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_de_pr%C3%A9historiens</t>
+          <t>Liste_de_préhistoriens</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette liste rassemble aussi bien des préhistoriens, qui sont des archéologues étudiant la Préhistoire, que des paléoanthropologues, qui sont des paléontologues étudiant les fossiles humains ou pré-humains.
 La distinction entre ces deux branches de la préhistoire est relativement récente, et la plupart des personnalités de la première moitié du XXe siècle qui suivent ne peuvent guère être affectées exclusivement à l'une ou à l'autre.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_de_pr%C3%A9historiens</t>
+          <t>Liste_de_préhistoriens</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,9 +527,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Décédés avant 1900
-Jacques Boucher de Perthes (1788-1868), un des fondateurs de la science préhistorique
-Jules de Christol (1802-1861)[1], paléontologue, a décrit certains gisements préhistoriques du Languedoc
+          <t>Décédés avant 1900</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Jacques Boucher de Perthes (1788-1868), un des fondateurs de la science préhistorique
+Jules de Christol (1802-1861), paléontologue, a décrit certains gisements préhistoriques du Languedoc
 François Jouannet (1765-1845), un des précurseurs de la préhistoire
 Édouard Lartet (1801-1871), un des fondateurs de la science préhistorique, descripteur du Dryopithèque en 1856 en Haute-Garonne
 Louis Lartet (1840-1899), découvreur de l'Homme de Cro-Magnon en 1868 en Dordogne
@@ -526,13 +543,85 @@
 Jean-Baptiste Noulet (1802-1890), paléontologue, un des fondateurs de la science préhistorique
 Casimir Picard (1805-1841), précurseur de la typologie lithique
 Henry Testot-Ferry (1826-1869), découvreur en 1866 du site préhistorique de Solutré en Saône-et-Loire
-Paul Tournal (1805-1872), un des fondateurs de la science préhistorique
-Préhistoriens régionaux
-Pierre de Cessac (1821-1889), dans la Creuse
+Paul Tournal (1805-1872), un des fondateurs de la science préhistorique</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Liste_de_préhistoriens</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_pr%C3%A9historiens</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> France</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Décédés avant 1900</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Préhistoriens régionaux</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Pierre de Cessac (1821-1889), dans la Creuse
 Nicolas Husson (1814-1890), en Meurthe-et-Moselle
-Jules de Malbos (1782-1867), en Ardèche
-Décédés entre 1900 et 1950
-Ernest d'Acy (1827-1905)
+Jules de Malbos (1782-1867), en Ardèche</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_de_préhistoriens</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_pr%C3%A9historiens</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> France</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Décédés entre 1900 et 1950</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Ernest d'Acy (1827-1905)
 Adrien Arcelin (1838 - 1904), fouille avec Henry Testot-Ferry le gisement préhistorique de Solutré
 Marcellin Boule (1861-1942), descripteur de l'Homme de Néandertal de La Chapelle-aux-Saints en 1911
 Maurice Bourlon (1875-1914)
@@ -556,9 +645,47 @@
 René de Saint-Périer (1877-1950), découvreur de la Vénus de Lespugue en 1922 en Haute-Garonne
 Joseph Tournier (1854-1938)
 André Vayson de Pradenne (1888-1939), spécialiste de typologie lithique, auteur du terme biface
-Sigismond Zaborowski-Moindron (1851-1928), chercheur en histoire de l'Homme
-Préhistoriens régionaux
-Adrien Arcelin (1838-1904), en Saône-et-Loire
+Sigismond Zaborowski-Moindron (1851-1928), chercheur en histoire de l'Homme</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_de_préhistoriens</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_pr%C3%A9historiens</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> France</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Décédés entre 1900 et 1950</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Préhistoriens régionaux</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Adrien Arcelin (1838-1904), en Saône-et-Loire
 Fabien Arcelin (1876-1942), en Saône-et-Loire
 Jules Beaupré (1859-1921), en Lorraine
 Jacques-Gabriel Bulliot (1817-1902), en Saône-et-Loire
@@ -574,9 +701,43 @@
 Francis Pérot (1840-1918), dans l'Allier
 Paul Raymond (1859-1944), dans le Gard
 Félix Régnault (1847-1908), à Toulouse et dans les Pyrénées
-Claudius Savoye (1856-1908), dans le Rhône
-Décédés entre 1950 et 2000
-Camille Arambourg (1885-1969), co-découvreur de l'Homme de Tighennif en 1954 en Algérie, et de Paranthropus aethiopicus en 1967 en Éthiopie
+Claudius Savoye (1856-1908), dans le Rhône</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_de_préhistoriens</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_pr%C3%A9historiens</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> France</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Décédés entre 1950 et 2000</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Camille Arambourg (1885-1969), co-découvreur de l'Homme de Tighennif en 1954 en Algérie, et de Paranthropus aethiopicus en 1967 en Éthiopie
 Lionel Balout (1907-1992)
 Henri Begouën (1863-1956)
 Paul Bellin (1931-1987)
@@ -605,17 +766,89 @@
 Raymond Vaufrey (1890-1967), spécialiste du Paléolithique supérieur et du Néolithique en Afrique du Nord
 Edmond Vignard (1885-1969), auteur en 1923 du Sébilien, culture de la fin du Paléolithique supérieur en Égypte
 Armand Viré (1869-1951), spéléologue, préhistorien du Paléolithique supérieur et du Néolithique en France
-Paul Wernert (1889-1972), spécialiste du Pléistocène en Alsace
-Préhistoriens régionaux
-Suzanne Cassou de Saint-Mathurin (1900-1991), a étudié le site du Roc-aux-Sorciers dans la Vienne
+Paul Wernert (1889-1972), spécialiste du Pléistocène en Alsace</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_de_préhistoriens</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_pr%C3%A9historiens</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> France</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Décédés entre 1950 et 2000</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Préhistoriens régionaux</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Suzanne Cassou de Saint-Mathurin (1900-1991), a étudié le site du Roc-aux-Sorciers dans la Vienne
 Sylvain Gagnière (1905-1997), dans le Vaucluse
 Roger Grosjean (1920-1975), en Corse
 Amédée Lemozi (1882-1970), dans le Lot, descripteur de la grotte du Pech Merle en 1929
 Denis Peyrony (1869-1954), en Dordogne, descripteur du site de La Ferrassie en 1934
 Élie Peyrony (1897-1989), en Dordogne
-Georges Poirot (1891-1983), en Lorraine
-Décédés après 2000
-Norbert Aujoulat (1946-2011), spécialiste de l'art pariétal, et de la grotte de Lascaux.
+Georges Poirot (1891-1983), en Lorraine</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Liste_de_préhistoriens</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_pr%C3%A9historiens</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> France</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Décédés après 2000</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Norbert Aujoulat (1946-2011), spécialiste de l'art pariétal, et de la grotte de Lascaux.
 Jacques Briard (1933-2002)
 Gabriel Camps (1927-2002)
 Christian Chambosse (1914-2004)
@@ -632,13 +865,88 @@
 Maurice Piboule (1919-2011)
 Jean Roche (1913-2008), spécialiste des industries paléolithiques au Maroc et au Portugal
 Denise de Sonneville-Bordes (1919-2008), spécialiste des industries du Paléolithique supérieur en Europe
-Jacques Tixier (1925-2018), spécialiste de technologie lithique
-Préhistoriens régionaux
-Roger Bouillon (1940-2008), en Mayenne
-Jean Vézian (1915-2012), en Ariège, descripteur de la grotte du Portel
-XXIe siècle
-Préhistoriens du Néolithique
-Jacques Cauvin (en) (1930-2001)
+Jacques Tixier (1925-2018), spécialiste de technologie lithique</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Liste_de_préhistoriens</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_pr%C3%A9historiens</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> France</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Décédés après 2000</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Préhistoriens régionaux</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Roger Bouillon (1940-2008), en Mayenne
+Jean Vézian (1915-2012), en Ariège, descripteur de la grotte du Portel</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Liste_de_préhistoriens</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_pr%C3%A9historiens</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> France</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>XXIe siècle</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Préhistoriens du Néolithique</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Jacques Cauvin (en) (1930-2001)
 Jean Courtin (1936- ), spécialiste du Néolithique provençal, et de la grotte Cosquer
 Jean-Paul Demoule (1947- ), spécialiste de l'Europe néolithique et des Indo-Européens
 Danilo Grébénart (1935- ), du Paléolithique final à l'Âge du fer en Afrique
@@ -647,9 +955,47 @@
 Charles-Tanguy Le Roux (1941- ), spécialiste du mégalithisme armoricain
 Cyril Marcigny (1970- ), spécialiste du Néolithique et de l'Âge du bronze en Normandie
 Bernard Sergent (1946- ), spécialiste des Indo-Européens
-Olivier Weller (1967- ), spécialiste du sel au Néolithique et dans l'Antiquité
-Préhistoriens du Paléolithique
-Sophie Archambault de Beaune ( - ), spécialiste en archéologie cognitive
+Olivier Weller (1967- ), spécialiste du sel au Néolithique et dans l'Antiquité</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Liste_de_préhistoriens</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_pr%C3%A9historiens</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> France</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>XXIe siècle</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Préhistoriens du Paléolithique</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Sophie Archambault de Beaune ( - ), spécialiste en archéologie cognitive
 Marc Azéma (1967- ), préhistorien et cinéaste de l'art pariétal
 Dominique Baffier ( - ), spécialiste de l'art pariétal
 Éric Boëda (1953- ), spécialiste de la méthode Levallois
@@ -663,9 +1009,47 @@
 Marylène Patou-Mathis ( - ), spécialiste de l'Homme de Néandertal
 Romain Pigeaud (1972- ), spécialiste de l'art pariétal
 Yvette Taborin (1929-2020), spécialiste des parures paléolithiques
-Thierry Tillet (1951- ), spécialiste des industries lithiques du Sahara
-Paléoanthropologues
-Jean-Pierre Bocquet-Appel (1949- ), spécialiste de paléodémographie
+Thierry Tillet (1951- ), spécialiste des industries lithiques du Sahara</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Liste_de_préhistoriens</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_pr%C3%A9historiens</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> France</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>XXIe siècle</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Paléoanthropologues</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Jean-Pierre Bocquet-Appel (1949- ), spécialiste de paléodémographie
 Louis de Bonis (1934- ), paléontologue, spécialiste des primates fossiles
 José Braga (1967- ), spécialiste des premiers représentants du genre Homo
 Michel Brunet (1940- ), découvreur d'Abel en 1995 et de Toumaï en 2001 au Tchad, professeur au Collège de France
@@ -683,85 +1067,163 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Liste_de_pr%C3%A9historiens</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_de_pr%C3%A9historiens</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Liste_de_préhistoriens</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_pr%C3%A9historiens</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t xml:space="preserve"> Allemagne</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Décédés avant 1960
-Johann Carl Fuhlrott (1803-1877), descripteur en 1857 des fossiles holotypes de l'Homme de Néandertal en Allemagne
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Décédés avant 1960</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Johann Carl Fuhlrott (1803-1877), descripteur en 1857 des fossiles holotypes de l'Homme de Néandertal en Allemagne
 Karl Gutmann (1854-1931), archéologue et préhistorien en Alsace et dans le pays de Bade
 Ludwig Lindenschmit (1809-1893), préhistorien de la Rhénanie et de la Hesse, premier conservateur du Musée central romain-germanique
 Johanna Mestorf (1828-1909), préhistorienne de l'Allemagne du nord, première femme professeur d'université en Allemagne
 Hugo Obermaier (1877-1946)
 Otto Schoetensack (1850-1912), descripteur d'Homo heidelbergensis en 1908 en Allemagne
 Carl Schuchhardt (1859-1943)
-Franz Weidenreich (1873-1948), médecin anatomiste, descripteur de l'Homme de Pékin en Chine de 1934 à 1941
-Décédés après 1960
-Gerhard Bersu (1889-1964), archéologue et préhistorien en Europe
+Franz Weidenreich (1873-1948), médecin anatomiste, descripteur de l'Homme de Pékin en Chine de 1934 à 1941</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Liste_de_préhistoriens</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_pr%C3%A9historiens</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Allemagne</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Décédés après 1960</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Gerhard Bersu (1889-1964), archéologue et préhistorien en Europe
 Kurt Bittel (1907-1991)
 Joachim Hahn (1942-1997), spécialiste du Paléolithique supérieur en Allemagne
 Gustav von Koenigswald (1902-1982), descripteur du Gigantopithèque en 1935 en Chine, co-descripteur d'Homo robustus en 1939 et d'Homo paleojavanicus en 1941 à Java
 Ludwig Kohl-Larsen (1884-1969)
 Hansjürgen Müller-Beck (1927-2018)
 Gustav Riek (1900-1976)
-Alfred Rust (1900-1983)
-XXIe siècle
-Winfried Henke (de) (1944- ), spécialiste du processus d'hominisation
+Alfred Rust (1900-1983)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Liste_de_préhistoriens</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_pr%C3%A9historiens</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Allemagne</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>XXIe siècle</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Winfried Henke (de) (1944- ), spécialiste du processus d'hominisation
 Johannes Krause (1980- ), paléogénéticien, co-descripteur génétique de l'Homme de Denisova en 2010 en Sibérie
 Friedemann Schrenk (de) (1956- ), co-découvreur des fossiles UR 501 en 1991 et RC 911 en 1996, au Malawi</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Liste_de_pr%C3%A9historiens</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_de_pr%C3%A9historiens</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Liste_de_préhistoriens</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_pr%C3%A9historiens</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t xml:space="preserve"> Royaume-Uni</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Décédés avant 1960
-Henry Christy (1810-1865), mécène, un des pionniers de la recherche préhistorique en France
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Décédés avant 1960</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Henry Christy (1810-1865), mécène, un des pionniers de la recherche préhistorique en France
 Maud Cunnington (en) (1869-1951), archéologue de l'Âge du fer en Grande-Bretagne
 Arthur Keith (1866-1955), anthropologue, théoricien post-darwinien de l'évolution de l'Homme
 William King (1809-1886), géologue, descripteur de l'Homme de Néandertal en 1864 en Allemagne
@@ -769,9 +1231,43 @@
 James Miln (1819-1881), pionnier des fouilles sur les sites mégalithiques de Carnac en Bretagne
 William Stukeley (1687-1765), pionnier de la recherche archéologique sur les sites mégalithiques de Stonehenge et Avebury en Angleterre
 Francis Turville-Petre (1901-1941), découvreur de l'Homme de Galilée en 1925 en Israël
-Arthur Smith Woodward (1864-1944), descripteur d'Homo rhodesiensis en 1921 en Zambie
-Décédés après 1960
-Grahame Clark (1907-1995)
+Arthur Smith Woodward (1864-1944), descripteur d'Homo rhodesiensis en 1921 en Zambie</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Liste_de_préhistoriens</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_pr%C3%A9historiens</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Royaume-Uni</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Décédés après 1960</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Grahame Clark (1907-1995)
 John Desmond Clark (1916-2002), découvreur en 1956 du site des chutes de Kalambo en Zambie, spécialiste de la préhistoire africaine
 Lorraine Copeland (1921-2013), spécialiste des industries lithiques du Proche-Orient
 Glyn Daniel (1914-1986), spécialiste de l'Âge du bronze et du mégalithisme européens
@@ -779,9 +1275,43 @@
 Wilfrid Le Gros Clark (1895-1971), anatomiste, paléontologue, paléoanthropologue
 James Mellaart (1925-2012), co-découvreur en 1951 du site néolithique de Çatal Höyük en Turquie
 Alan Walker (1938-2017), découvreur du Crâne noir de Paranthropus aethiopicus en 1985 au Kenya
-John Wymer (1928-2006), spécialiste du Paléolithique inférieur en Grande-Bretagne
-XXIe siècle
-Ronald Clarke (1944- ), découvreur en 1994-1997 de Little Foot en Afrique du Sud
+John Wymer (1928-2006), spécialiste du Paléolithique inférieur en Grande-Bretagne</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Liste_de_préhistoriens</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_pr%C3%A9historiens</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Royaume-Uni</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>XXIe siècle</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Ronald Clarke (1944- ), découvreur en 1994-1997 de Little Foot en Afrique du Sud
 Bryony Coles (en) (1946- ), spécialiste du Doggerland (Mer du Nord)
 Barry Cunliffe (1939- ), archéologue de l'Angleterre celtique et romaine
 Robin Dennell (en) (1947- ), co-découvreur du site archéolithique de Riwat en 1983 au Pakistan
@@ -796,34 +1326,39 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Liste_de_pr%C3%A9historiens</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_de_pr%C3%A9historiens</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Liste_de_préhistoriens</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_pr%C3%A9historiens</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
         <is>
           <t xml:space="preserve"> États-Unis</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Décédés
-Lewis Binford (1931-2011), pionnier de l'ethnoarchéologie et de l'archéologie anthropologique
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Décédés</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Lewis Binford (1931-2011), pionnier de l'ethnoarchéologie et de l'archéologie anthropologique
 Robert John Braidwood (1907-2003), spécialiste du Néolithique du Moyen-Orient
 Marija Gimbutas (1921-1994), spécialiste des Indo-Européens, promoteur de l'hypothèse kourgane
 Francis Clark Howell (1925-2007), lance les expéditions paléoanthropologiques en Éthiopie en 1967
@@ -832,15 +1367,90 @@
 Theodore McCown (de) (1908-1969), co-découvreur du fossile Skhul 5 en 1933 en Israël
 Hallam Movius (1907-1987), co-découvreur du fossile Skhul 5 en 1933 en Israël, auteur de la ligne de Movius (en) en 1948
 Ralph Solecki (1917- ), découvreur en 1951 du site néandertalien de Shanidar en Irak
-Fred Wendorf (1924-2015), co-découvreur du site néolithique de Nabta Playa en 1973 en Égypte
-XXIe siècle
-Préhistoriens
-Nicholas Conard (1961- ), spécialiste du Paléolithique supérieur en Allemagne
+Fred Wendorf (1924-2015), co-découvreur du site néolithique de Nabta Playa en 1973 en Égypte</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Liste_de_préhistoriens</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_pr%C3%A9historiens</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> États-Unis</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>XXIe siècle</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Préhistoriens</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Nicholas Conard (1961- ), spécialiste du Paléolithique supérieur en Allemagne
 Margaret Conkey (1943- ), spécialiste du Magdalénien et de la femme préhistorique
 Richard Klein (1941- ), promoteur de la théorie de l'émergence soudaine de la modernité comportementale chez Homo sapiens
-James Patrick Mallory (1945- ), spécialiste de l'Âge du bronze et des Indo-Européens
-Paléoanthropologues
-Leslie Aiello (en) (1946- ), spécialiste de l'évolution anatomique du genre Homo
+James Patrick Mallory (1945- ), spécialiste de l'Âge du bronze et des Indo-Européens</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Liste_de_préhistoriens</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_pr%C3%A9historiens</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> États-Unis</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>XXIe siècle</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Paléoanthropologues</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Leslie Aiello (en) (1946- ), spécialiste de l'évolution anatomique du genre Homo
 Lee Rogers Berger (1965- ), découvreur d'Australopithecus sediba en 2008, et d'Homo naledi en 2013, en Afrique du Sud
 James Birx (en) (1941- ), paléoanthropologue, directeur de publication
 Timothy Bromage (de) (1954- ), co-découvreur des fossiles UR 501 en 1991 et RC 911 en 1996, au Malawi
@@ -860,70 +1470,347 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Liste_de_pr%C3%A9historiens</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_de_pr%C3%A9historiens</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Autres pays</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Afrique du Sud
-Robert Broom (1866-1951), co-découvreur de Mrs. Ples en 1947 en Afrique du Sud
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Liste_de_préhistoriens</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_pr%C3%A9historiens</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Autres pays</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Afrique du Sud</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Robert Broom (1866-1951), co-découvreur de Mrs. Ples en 1947 en Afrique du Sud
 Glynn Isaac (1937-1985), spécialiste de l'évolution du genre Homo
 John Talbot Robinson (en) (1923-2001), co-découvreur de Mrs. Ples en 1947 en Afrique du Sud
 John Thackeray (de) (1952- ), auteur du concept d'espèce statistique, fondé sur la comparaison d'une multitude de caractères morphologiques
 Phillip Tobias (1925-2012), co-descripteur d'Homo habilis en 1964 en Tanzanie, spécialiste des gorges d'Olduvai et de Sterkfontein
-Clarence Van Riet Lowe (en) (1894-1956), co-auteur de la classification des industries lithiques d'Afrique australe en 1929
- Australie
-Peter Bellwood (1943- ), spécialiste du Néolithique de l'Asie du Sud-Est et de l'Océanie
+Clarence Van Riet Lowe (en) (1894-1956), co-auteur de la classification des industries lithiques d'Afrique australe en 1929</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Liste_de_préhistoriens</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_pr%C3%A9historiens</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Autres pays</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Australie</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Peter Bellwood (1943- ), spécialiste du Néolithique de l'Asie du Sud-Est et de l'Océanie
 Peter Brown (1954- ), descripteur de l'Homme de Florès en 2004 en Indonésie
 Vere Gordon Childe (1892-1957), précurseur des études indo-européennes, théoricien du Néolithique
 Raymond Dart (1893-1988), descripteur d'Australopithecus africanus en 1925 en Afrique du Sud
 Colin Groves (1942-2017), co-descripteur d'Homo ergaster en 1975 au Kenya
-Michael Morwood (1950-2013), co-découvreur de l'Homme de Florès en 2003 en Indonésie
- Autriche
-Felix von Luschan (1854-1924)
+Michael Morwood (1950-2013), co-découvreur de l'Homme de Florès en 2003 en Indonésie</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Liste_de_préhistoriens</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_pr%C3%A9historiens</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Autres pays</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Autriche</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Felix von Luschan (1854-1924)
 Oswald Menghin (1888-1973)
-Otto Zdansky (1894-1988), paléontologue, découvreur de l'Homme de Pékin en 1921 en Chine
- Belgique
-Édouard Dupont (1841-1911)
+Otto Zdansky (1894-1988), paléontologue, découvreur de l'Homme de Pékin en 1921 en Chine</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Liste_de_préhistoriens</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_pr%C3%A9historiens</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Autres pays</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Belgique</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Édouard Dupont (1841-1911)
 Julien Fraipont (1857-1910)
 Marc Groenen (1954- ), historien de l’art, archéologue et philosophe des sciences, spécialiste de l’art du Paléolithique supérieur et historien de la préhistoire
 Joseph Hamal-Nandrin (1869-1958)
 Marcel Otte (1948- ), généraliste de la Préhistoire
 Aimé Rutot (1847-1933)
 Philippe-Charles Schmerling (1790-1836), découvreur en 1829 des fossiles d'Engis, dont Engis 2, premier fossile néandertalien jamais mis au jour
-Antoine Spring (1814-1872)
- Canada
-Davidson Black (1884-1934), descripteur du Sinanthrope en 1927 en Chine
- Corée du Sud
-Sohn Pokee (1922-2010), fondateur de la recherche préhistorique en Corée du Sud
- Croatie
-Dragutin Gorjanović-Kramberger (1856-1936), paléontologue, découvreur en 1899 des fossiles néandertaliens de Krapina en Croatie
- Danemark
-Christian Jürgensen Thomsen (1788-1865), auteur en 1836 des trois âges préhistoriques successifs : âge de la pierre, âge du bronze, et âge du fer
-Jens Jacob Asmussen Worsaae (1821-1885), fondateur de l'archéologie préhistorique du Danemark, auteur de la loi de Worsaae
- Espagne
-Martín Almagro Basch (1911-1984)
+Antoine Spring (1814-1872)</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Liste_de_préhistoriens</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_pr%C3%A9historiens</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Autres pays</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Canada</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Davidson Black (1884-1934), descripteur du Sinanthrope en 1927 en Chine</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Liste_de_préhistoriens</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_pr%C3%A9historiens</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Autres pays</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Corée du Sud</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Sohn Pokee (1922-2010), fondateur de la recherche préhistorique en Corée du Sud</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Liste_de_préhistoriens</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_pr%C3%A9historiens</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Autres pays</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Croatie</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Dragutin Gorjanović-Kramberger (1856-1936), paléontologue, découvreur en 1899 des fossiles néandertaliens de Krapina en Croatie</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Liste_de_préhistoriens</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_pr%C3%A9historiens</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Autres pays</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Danemark</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Christian Jürgensen Thomsen (1788-1865), auteur en 1836 des trois âges préhistoriques successifs : âge de la pierre, âge du bronze, et âge du fer
+Jens Jacob Asmussen Worsaae (1821-1885), fondateur de l'archéologie préhistorique du Danemark, auteur de la loi de Worsaae</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Liste_de_préhistoriens</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_pr%C3%A9historiens</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Autres pays</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Espagne</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Martín Almagro Basch (1911-1984)
 Juan Luis Arsuaga (1954- ), co-découvreur des fossiles de la Sima de los Huesos en 1992, d'Homo antecessor en 1994, en Espagne
 José María Bermúdez de Castro (1952- ), co-découvreur des fossiles de la Sima de los Huesos en 1992, d'Homo antecessor en 1994, en Espagne
 Pere Bosch Gimpera (1891-1974)
@@ -934,25 +1821,263 @@
 Luis Pericot Garcia (1899-1978)
 Eduardo Ripoll Perelló (es) (1923-2006)
 Marcelino Sanz de Sautuola (1831-1888), co-descripteur de la grotte d'Altamira en 1880 en Espagne
-Juan Vilanova y Piera (1821-1893), co-descripteur de la grotte d'Altamira en 1880 en Espagne
- Éthiopie
-Zeresenay Alemseged (1969- ), découvreur de Selam en 2000 en Éthiopie
+Juan Vilanova y Piera (1821-1893), co-descripteur de la grotte d'Altamira en 1880 en Espagne</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Liste_de_préhistoriens</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_pr%C3%A9historiens</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Autres pays</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Éthiopie</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Zeresenay Alemseged (1969- ), découvreur de Selam en 2000 en Éthiopie
 Berhane Asfaw (1954- ), co-descripteur d'Ardipithecus ramidus en 1994, d'Australopithecus garhi en 1999, en Éthiopie
-Yohannes Haile-Selassie (1961- ), découvreur d'Ardipithecus kadabba en 1992, d'Australopithecus garhi en 1997, de Kadanuumuu en 2005, d'Australopithecus deyiremeda en 2011, en Éthiopie
- Géorgie
-David Lordkipanidze (1963- ), découvreur d'Homo georgicus de 1991 à 2005 en Géorgie
- Grèce
-Aris Poulianos (1924- ), descripteur de l'Homme de Petralona en 1976 en Grèce
- Hongrie
-Sándor Bökönyi (1926-1994), spécialiste de la domestication animale dans l'Europe néolithique
-László Vértes (1914-1968), découvreur du site paléolithique de Vértesszőlős en 1963 en Hongrie
- Iran
-Fereidoun Biglari (1970- ), spécialiste du Paléolithique en Iran
- Israël
-Ofer Bar-Yosef (1937- ), préhistorien et paléoanthropologue
-Yoel Rak (de) (1946- ), spécialiste de l'anatomie du crâne des hominines, co-découvreur du fossile AL 444-2 en 1991 en Éthiopie
- Italie
-Alberto Angela (1962-)
+Yohannes Haile-Selassie (1961- ), découvreur d'Ardipithecus kadabba en 1992, d'Australopithecus garhi en 1997, de Kadanuumuu en 2005, d'Australopithecus deyiremeda en 2011, en Éthiopie</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Liste_de_préhistoriens</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_pr%C3%A9historiens</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Autres pays</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Géorgie</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>David Lordkipanidze (1963- ), découvreur d'Homo georgicus de 1991 à 2005 en Géorgie</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Liste_de_préhistoriens</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_pr%C3%A9historiens</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Autres pays</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Grèce</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Aris Poulianos (1924- ), descripteur de l'Homme de Petralona en 1976 en Grèce</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Liste_de_préhistoriens</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_pr%C3%A9historiens</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Autres pays</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hongrie</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Sándor Bökönyi (1926-1994), spécialiste de la domestication animale dans l'Europe néolithique
+László Vértes (1914-1968), découvreur du site paléolithique de Vértesszőlős en 1963 en Hongrie</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Liste_de_préhistoriens</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_pr%C3%A9historiens</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Autres pays</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Iran</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Fereidoun Biglari (1970- ), spécialiste du Paléolithique en Iran</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Liste_de_préhistoriens</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_pr%C3%A9historiens</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Autres pays</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Israël</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Ofer Bar-Yosef (1937- ), préhistorien et paléoanthropologue
+Yoel Rak (de) (1946- ), spécialiste de l'anatomie du crâne des hominines, co-découvreur du fossile AL 444-2 en 1991 en Éthiopie</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Liste_de_préhistoriens</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_pr%C3%A9historiens</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Autres pays</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Italie</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Alberto Angela (1962-)
 Amilcare Bietti (1937-2006), spécialiste des applications mathématiques et statistiques en préhistoire
 Francesco Bassani (it) (1853-1916)
 Alberto Carlo Blanc (it) (1906-1960)
@@ -982,50 +2107,458 @@
 Pellegrino von Strobel (1821-1895)
 Federico Venturi (en) (1940-2020)
 Giovanni Serafino Volta (en) (1764-1842)
-Francesco Zorzi (1900-1964)
- Japon
-Gen Suwa (en) (1954- ), découvreur en 1992 et co-descripteur en 1994 d'Ardipithecus ramidus, découvreur en 2007 de Chororapithecus, en Éthiopie
- Kenya
-Kamoya Kimeu (1940- ), co-découvreur du Garçon de Turkana en 1984 au Kenya
+Francesco Zorzi (1900-1964)</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Liste_de_préhistoriens</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_pr%C3%A9historiens</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Autres pays</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Japon</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Gen Suwa (en) (1954- ), découvreur en 1992 et co-descripteur en 1994 d'Ardipithecus ramidus, découvreur en 2007 de Chororapithecus, en Éthiopie</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Liste_de_préhistoriens</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_pr%C3%A9historiens</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Autres pays</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Kenya</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Kamoya Kimeu (1940- ), co-découvreur du Garçon de Turkana en 1984 au Kenya
 Louis Leakey (1903-1972), co-découvreur de Paranthropus boisei en 1959, et d'Homo habilis en 1960, en Tanzanie
 Mary Leakey (1913-1996), co-découvreuse de Paranthropus boisei en 1959, et d'Homo habilis en 1960, en Tanzanie
 Richard Leakey (1944- ), co-découvreur du Garçon de Turkana en 1984 au Kenya
 Meave Leakey (1942- ), découvreuse de Kenyanthropus platyops en 1999 au Kenya
-Louise Leakey (1972- )
- Malte
-Themistocles Zammit (1864-1935), professeur de médecine, pionnier de l'archéologie maltaise
- Nouvelle-Zélande
-Allan Wilson (1934-1991), généticien, promoteur de la théorie de l'Horloge moléculaire, auteur en 1987 du concept d'Ève mitochondriale
- Pays-Bas
-Eugène Dubois (1858-1940), médecin anatomiste, découvreur d'Homo erectus en 1891 à Java en Indonésie
-Wil Roebroeks (en) (1955- ), descripteur en 2009 du premier fossile néandertalien trouvé aux Pays-Bas, spécialiste du Paléolithique inférieur et moyen en Europe
- Pologne
-Romuald Schild (1936- ), co-découvreur du site néolithique de Nabta Playa en 1973 en Égypte
- Portugal
-João Zilhão (de) (1957- ), l'un des promoteurs de la théorie des interactions soutenues entre l'Homme de Néandertal et Homo sapiens
- Russie
-Valeri Alekseïev (1929-1991), descripteur de l'espèce Homo rudolfensis en 1986 au Kenya
+Louise Leakey (1972- )</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Liste_de_préhistoriens</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_pr%C3%A9historiens</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Autres pays</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Malte</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Themistocles Zammit (1864-1935), professeur de médecine, pionnier de l'archéologie maltaise</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Liste_de_préhistoriens</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_pr%C3%A9historiens</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Autres pays</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Nouvelle-Zélande</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Allan Wilson (1934-1991), généticien, promoteur de la théorie de l'Horloge moléculaire, auteur en 1987 du concept d'Ève mitochondriale</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Liste_de_préhistoriens</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_pr%C3%A9historiens</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Autres pays</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pays-Bas</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Eugène Dubois (1858-1940), médecin anatomiste, découvreur d'Homo erectus en 1891 à Java en Indonésie
+Wil Roebroeks (en) (1955- ), descripteur en 2009 du premier fossile néandertalien trouvé aux Pays-Bas, spécialiste du Paléolithique inférieur et moyen en Europe</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Liste_de_préhistoriens</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_pr%C3%A9historiens</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Autres pays</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pologne</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Romuald Schild (1936- ), co-découvreur du site néolithique de Nabta Playa en 1973 en Égypte</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Liste_de_préhistoriens</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_pr%C3%A9historiens</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Autres pays</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Portugal</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>João Zilhão (de) (1957- ), l'un des promoteurs de la théorie des interactions soutenues entre l'Homme de Néandertal et Homo sapiens</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Liste_de_préhistoriens</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_pr%C3%A9historiens</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Autres pays</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Russie</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Valeri Alekseïev (1929-1991), descripteur de l'espèce Homo rudolfensis en 1986 au Kenya
 Anatoly Derevyanko (en) (1943- ), spécialiste du peuplement paléolithique de la Sibérie
 Elena Kuzmina (en) (1931-2013), spécialiste des origines des peuples indo-iraniens
 Alexandre Mongait (en) (1915-1974), diffuseur de l'archéologie préhistorique européenne en Russie
-Alekseï Okladnikov (1908-1981), découvreur du fossile néandertalien de Teshik-Tash en 1938 en Ouzbékistan, spécialiste de la préhistoire de la Sibérie
- Serbie
-Vladimir Milojčić (de) (1918-1978)
+Alekseï Okladnikov (1908-1981), découvreur du fossile néandertalien de Teshik-Tash en 1938 en Ouzbékistan, spécialiste de la préhistoire de la Sibérie</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Liste_de_préhistoriens</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_pr%C3%A9historiens</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Autres pays</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Serbie</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Vladimir Milojčić (de) (1918-1978)
 Dragoslav Srejović (1931-1996), archéologue des sites préhistoriques de l'ex-Yougoslavie, tels que Lepenski Vir
-Miloje Vasić (1869-1956)
- Suède
-Johan Gunnar Andersson (1874-1960), géologue, archéologue, descripteur de l'Homme de Pékin en 1926 en Chine
-Svante Pääbo (1955- ), spécialiste de paléogénétique, co-descripteur génétique de l'Homme de Denisova en 2010 en Sibérie
- Suisse
-Marie Besse (1964- )
+Miloje Vasić (1869-1956)</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Liste_de_préhistoriens</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_pr%C3%A9historiens</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Autres pays</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Suède</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Johan Gunnar Andersson (1874-1960), géologue, archéologue, descripteur de l'Homme de Pékin en 1926 en Chine
+Svante Pääbo (1955- ), spécialiste de paléogénétique, co-descripteur génétique de l'Homme de Denisova en 2010 en Sibérie</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Liste_de_préhistoriens</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_pr%C3%A9historiens</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Autres pays</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Suisse</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Marie Besse (1964- )
 Édouard Desor (1811-1882)
 Otto Hauser (1874-1932)
 Marion Lichardus-Itten (1941- )
 Eugène Pittard (1867-1962), anthropologue, ethnologue, préhistorien
 Marc Sauter (1914-1983)
-Emil Vogt (de) (1906-1974)
- Tchéquie
-Jan Filip (1900-1981)
+Emil Vogt (de) (1906-1974)</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Liste_de_préhistoriens</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_pr%C3%A9historiens</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Autres pays</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tchéquie</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Jan Filip (1900-1981)
 Vratislav Mazák (1937-1987), zoologiste, co-descripteur d'Homo ergaster en 1975 au Kenya</t>
         </is>
       </c>
